--- a/record.xlsx
+++ b/record.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5772" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tracking" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tracking" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -49,7 +50,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -412,13 +413,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -432,102 +433,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>harry</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>my poll</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>mina</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>my poll</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>sita</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>my poll</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>ram</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>other poll</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>shyam</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>other poll</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>gopal</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>other poll</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>tina</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>my poll</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>sabita</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>other poll</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
